--- a/FileTest.xlsx
+++ b/FileTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\dot_net\repos\azure_functions_excel_file_parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4979C7D2-E2F4-4749-A8D8-B589859505D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FEF873-C6F2-477A-9CE7-26E67A71EB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{0A2CEEB8-D95B-4C77-ACA2-8190BD48661D}"/>
   </bookViews>
@@ -35,23 +35,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Age</t>
   </si>
   <si>
-    <t>Marco</t>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>Marco Martinez</t>
+  </si>
+  <si>
+    <t>Oswaldo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -79,8 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,29 +408,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9C5722-3294-4DA6-AFF0-8DE348DCE7EF}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>35</v>
       </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
